--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H2">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I2">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J2">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N2">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O2">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P2">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q2">
-        <v>384.1558633876089</v>
+        <v>424.226729195584</v>
       </c>
       <c r="R2">
-        <v>3457.40277048848</v>
+        <v>3818.040562760256</v>
       </c>
       <c r="S2">
-        <v>0.004694594306537477</v>
+        <v>0.004208207171551549</v>
       </c>
       <c r="T2">
-        <v>0.004694594306537476</v>
+        <v>0.00420820717155155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H3">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I3">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J3">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>213.429389</v>
       </c>
       <c r="O3">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P3">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q3">
-        <v>462.9939861353058</v>
+        <v>531.7609352711057</v>
       </c>
       <c r="R3">
-        <v>4166.945875217752</v>
+        <v>4785.848417439952</v>
       </c>
       <c r="S3">
-        <v>0.00565803919301055</v>
+        <v>0.005274915575456674</v>
       </c>
       <c r="T3">
-        <v>0.005658039193010549</v>
+        <v>0.005274915575456674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H4">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I4">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J4">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N4">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O4">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P4">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q4">
-        <v>445.1603148053013</v>
+        <v>932.7294962487449</v>
       </c>
       <c r="R4">
-        <v>4006.442833247712</v>
+        <v>8394.565466238704</v>
       </c>
       <c r="S4">
-        <v>0.005440101996498141</v>
+        <v>0.009252408405935239</v>
       </c>
       <c r="T4">
-        <v>0.00544010199649814</v>
+        <v>0.009252408405935237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H5">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I5">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J5">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N5">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O5">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P5">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q5">
-        <v>133.1861190103938</v>
+        <v>160.6669800099147</v>
       </c>
       <c r="R5">
-        <v>1198.675071093544</v>
+        <v>1446.002820089232</v>
       </c>
       <c r="S5">
-        <v>0.001627607061629416</v>
+        <v>0.00159377024354714</v>
       </c>
       <c r="T5">
-        <v>0.001627607061629416</v>
+        <v>0.00159377024354714</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H6">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I6">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J6">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N6">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O6">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P6">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q6">
-        <v>483.8456523692881</v>
+        <v>646.5629311738719</v>
       </c>
       <c r="R6">
-        <v>4354.610871323593</v>
+        <v>5819.066380564847</v>
       </c>
       <c r="S6">
-        <v>0.0059128579343429</v>
+        <v>0.006413718364669235</v>
       </c>
       <c r="T6">
-        <v>0.0059128579343429</v>
+        <v>0.006413718364669235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>808.641815</v>
       </c>
       <c r="I7">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J7">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N7">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O7">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P7">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q7">
-        <v>15911.09332033899</v>
+        <v>15298.52306592022</v>
       </c>
       <c r="R7">
-        <v>143199.8398830509</v>
+        <v>137686.707593282</v>
       </c>
       <c r="S7">
-        <v>0.1944422439729427</v>
+        <v>0.151756949879674</v>
       </c>
       <c r="T7">
-        <v>0.1944422439729427</v>
+        <v>0.151756949879674</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>808.641815</v>
       </c>
       <c r="I8">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J8">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>213.429389</v>
       </c>
       <c r="O8">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P8">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q8">
         <v>19176.43649947789</v>
       </c>
       <c r="R8">
-        <v>172587.928495301</v>
+        <v>172587.9284953011</v>
       </c>
       <c r="S8">
-        <v>0.234346519707527</v>
+        <v>0.190224736086115</v>
       </c>
       <c r="T8">
-        <v>0.234346519707527</v>
+        <v>0.1902247360861151</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>808.641815</v>
       </c>
       <c r="I9">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J9">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N9">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O9">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P9">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q9">
-        <v>18437.79566168427</v>
+        <v>33636.220281742</v>
       </c>
       <c r="R9">
-        <v>165940.1609551584</v>
+        <v>302725.982535678</v>
       </c>
       <c r="S9">
-        <v>0.2253199255509172</v>
+        <v>0.3336616334428458</v>
       </c>
       <c r="T9">
-        <v>0.2253199255509172</v>
+        <v>0.3336616334428458</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>808.641815</v>
       </c>
       <c r="I10">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J10">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N10">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O10">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P10">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q10">
-        <v>5516.346281587183</v>
+        <v>5793.994886352881</v>
       </c>
       <c r="R10">
-        <v>49647.11653428464</v>
+        <v>52145.95397717593</v>
       </c>
       <c r="S10">
-        <v>0.06741276214831213</v>
+        <v>0.05747476326849282</v>
       </c>
       <c r="T10">
-        <v>0.06741276214831213</v>
+        <v>0.05747476326849282</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>808.641815</v>
       </c>
       <c r="I11">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J11">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N11">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O11">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P11">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q11">
-        <v>20040.07763827966</v>
+        <v>23316.44197641338</v>
       </c>
       <c r="R11">
-        <v>180360.698744517</v>
+        <v>209847.9777877204</v>
       </c>
       <c r="S11">
-        <v>0.2449006857623074</v>
+        <v>0.2312924000009705</v>
       </c>
       <c r="T11">
-        <v>0.2449006857623074</v>
+        <v>0.2312924000009705</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H12">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I12">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J12">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N12">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O12">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P12">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q12">
-        <v>166.5909808367533</v>
+        <v>3.362682135484</v>
       </c>
       <c r="R12">
-        <v>1499.31882753078</v>
+        <v>30.264139219356</v>
       </c>
       <c r="S12">
-        <v>0.002035832704101171</v>
+        <v>3.335683987905436E-05</v>
       </c>
       <c r="T12">
-        <v>0.002035832704101171</v>
+        <v>3.335683987905436E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H13">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I13">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J13">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>213.429389</v>
       </c>
       <c r="O13">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P13">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q13">
-        <v>200.7795002570997</v>
+        <v>4.215064432114111</v>
       </c>
       <c r="R13">
-        <v>1807.015502313897</v>
+        <v>37.935579889027</v>
       </c>
       <c r="S13">
-        <v>0.00245363507005845</v>
+        <v>4.181222716779041E-05</v>
       </c>
       <c r="T13">
-        <v>0.002453635070058449</v>
+        <v>4.181222716779041E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H14">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I14">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J14">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N14">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O14">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P14">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q14">
-        <v>193.045845556148</v>
+        <v>7.393388012636557</v>
       </c>
       <c r="R14">
-        <v>1737.412610005332</v>
+        <v>66.540492113729</v>
       </c>
       <c r="S14">
-        <v>0.002359125588912819</v>
+        <v>7.334028319204807E-05</v>
       </c>
       <c r="T14">
-        <v>0.002359125588912819</v>
+        <v>7.334028319204806E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H15">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I15">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J15">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N15">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O15">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P15">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q15">
-        <v>57.75678133381767</v>
+        <v>1.273545362089667</v>
       </c>
       <c r="R15">
-        <v>519.811032004359</v>
+        <v>11.461908258807</v>
       </c>
       <c r="S15">
-        <v>0.0007058193890954322</v>
+        <v>1.263320379695146E-05</v>
       </c>
       <c r="T15">
-        <v>0.0007058193890954321</v>
+        <v>1.263320379695146E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H16">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I16">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J16">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N16">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O16">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P16">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q16">
-        <v>209.821922516043</v>
+        <v>5.125055703696999</v>
       </c>
       <c r="R16">
-        <v>1888.397302644387</v>
+        <v>46.12550133327299</v>
       </c>
       <c r="S16">
-        <v>0.00256413840503244</v>
+        <v>5.083907892318491E-05</v>
       </c>
       <c r="T16">
-        <v>0.002564138405032439</v>
+        <v>5.083907892318491E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H17">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I17">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J17">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N17">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O17">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P17">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q17">
-        <v>2.076284404546667</v>
+        <v>131.84257412956</v>
       </c>
       <c r="R17">
-        <v>18.68655964092</v>
+        <v>1186.58316716604</v>
       </c>
       <c r="S17">
-        <v>2.53733285713315E-05</v>
+        <v>0.001307840425377908</v>
       </c>
       <c r="T17">
-        <v>2.53733285713315E-05</v>
+        <v>0.001307840425377908</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H18">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I18">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J18">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>213.429389</v>
       </c>
       <c r="O18">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P18">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q18">
-        <v>2.502388442895334</v>
+        <v>165.2624073467144</v>
       </c>
       <c r="R18">
-        <v>22.521495986058</v>
+        <v>1487.36166612043</v>
       </c>
       <c r="S18">
-        <v>3.05805524694239E-05</v>
+        <v>0.001639355561359939</v>
       </c>
       <c r="T18">
-        <v>3.05805524694239E-05</v>
+        <v>0.001639355561359939</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H19">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I19">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J19">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N19">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O19">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P19">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q19">
-        <v>2.406001072072</v>
+        <v>289.8767316835123</v>
       </c>
       <c r="R19">
-        <v>21.654009648648</v>
+        <v>2608.89058515161</v>
       </c>
       <c r="S19">
-        <v>2.940264619383292E-05</v>
+        <v>0.002875493827203142</v>
       </c>
       <c r="T19">
-        <v>2.940264619383291E-05</v>
+        <v>0.002875493827203142</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H20">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I20">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J20">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N20">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O20">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P20">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q20">
-        <v>0.7198439179473334</v>
+        <v>49.93261094673667</v>
       </c>
       <c r="R20">
-        <v>6.478595261526001</v>
+        <v>449.39349852063</v>
       </c>
       <c r="S20">
-        <v>8.796885537528373E-06</v>
+        <v>0.0004953171429786891</v>
       </c>
       <c r="T20">
-        <v>8.796885537528371E-06</v>
+        <v>0.0004953171429786891</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.322956666666667</v>
+      </c>
+      <c r="H21">
+        <v>6.96887</v>
+      </c>
+      <c r="I21">
+        <v>0.008311283383757393</v>
+      </c>
+      <c r="J21">
+        <v>0.008311283383757391</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>86.50223699999999</v>
+      </c>
+      <c r="N21">
+        <v>259.506711</v>
+      </c>
+      <c r="O21">
+        <v>0.239827754006456</v>
+      </c>
+      <c r="P21">
+        <v>0.2398277540064561</v>
+      </c>
+      <c r="Q21">
+        <v>200.94094812073</v>
+      </c>
+      <c r="R21">
+        <v>1808.46853308657</v>
+      </c>
+      <c r="S21">
+        <v>0.001993276426837714</v>
+      </c>
+      <c r="T21">
+        <v>0.001993276426837714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H22">
+        <v>0.271025</v>
+      </c>
+      <c r="I22">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J22">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>56.756364</v>
+      </c>
+      <c r="N22">
+        <v>170.269092</v>
+      </c>
+      <c r="O22">
+        <v>0.157357217290148</v>
+      </c>
+      <c r="P22">
+        <v>0.157357217290148</v>
+      </c>
+      <c r="Q22">
+        <v>5.127464517699999</v>
+      </c>
+      <c r="R22">
+        <v>46.14718065929999</v>
+      </c>
+      <c r="S22">
+        <v>5.086297366546477E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.086297366546478E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H23">
+        <v>0.271025</v>
+      </c>
+      <c r="I23">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J23">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>71.14312966666667</v>
+      </c>
+      <c r="N23">
+        <v>213.429389</v>
+      </c>
+      <c r="O23">
+        <v>0.1972445753159741</v>
+      </c>
+      <c r="P23">
+        <v>0.1972445753159741</v>
+      </c>
+      <c r="Q23">
+        <v>6.427188905969444</v>
+      </c>
+      <c r="R23">
+        <v>57.84470015372499</v>
+      </c>
+      <c r="S23">
+        <v>6.375586587460769E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.375586587460771E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H24">
+        <v>0.271025</v>
+      </c>
+      <c r="I24">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J24">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>124.7878343333334</v>
+      </c>
+      <c r="N24">
+        <v>374.363503</v>
+      </c>
+      <c r="O24">
+        <v>0.3459747062436438</v>
+      </c>
+      <c r="P24">
+        <v>0.3459747062436438</v>
+      </c>
+      <c r="Q24">
+        <v>11.27354093339722</v>
+      </c>
+      <c r="R24">
+        <v>101.461868400575</v>
+      </c>
+      <c r="S24">
+        <v>0.0001118302844676011</v>
+      </c>
+      <c r="T24">
+        <v>0.0001118302844676011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.035174</v>
-      </c>
-      <c r="H21">
-        <v>0.105522</v>
-      </c>
-      <c r="I21">
-        <v>0.0001261112087748008</v>
-      </c>
-      <c r="J21">
-        <v>0.0001261112087748008</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>74.34717300000001</v>
-      </c>
-      <c r="N21">
-        <v>223.041519</v>
-      </c>
-      <c r="O21">
-        <v>0.2534096398976854</v>
-      </c>
-      <c r="P21">
-        <v>0.2534096398976854</v>
-      </c>
-      <c r="Q21">
-        <v>2.615087463102001</v>
-      </c>
-      <c r="R21">
-        <v>23.535787167918</v>
-      </c>
-      <c r="S21">
-        <v>3.195779600268409E-05</v>
-      </c>
-      <c r="T21">
-        <v>3.195779600268409E-05</v>
+      <c r="G25">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H25">
+        <v>0.271025</v>
+      </c>
+      <c r="I25">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J25">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.495283</v>
+      </c>
+      <c r="N25">
+        <v>64.485849</v>
+      </c>
+      <c r="O25">
+        <v>0.05959574714377799</v>
+      </c>
+      <c r="P25">
+        <v>0.05959574714377799</v>
+      </c>
+      <c r="Q25">
+        <v>1.941919691691666</v>
+      </c>
+      <c r="R25">
+        <v>17.477277225225</v>
+      </c>
+      <c r="S25">
+        <v>1.926328496238259E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.926328496238259E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H26">
+        <v>0.271025</v>
+      </c>
+      <c r="I26">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J26">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>86.50223699999999</v>
+      </c>
+      <c r="N26">
+        <v>259.506711</v>
+      </c>
+      <c r="O26">
+        <v>0.239827754006456</v>
+      </c>
+      <c r="P26">
+        <v>0.2398277540064561</v>
+      </c>
+      <c r="Q26">
+        <v>7.814756260974998</v>
+      </c>
+      <c r="R26">
+        <v>70.33280634877499</v>
+      </c>
+      <c r="S26">
+        <v>7.752013505542378E-05</v>
+      </c>
+      <c r="T26">
+        <v>7.75201350554238E-05</v>
       </c>
     </row>
   </sheetData>
